--- a/Modules/LOGx/LOGx_BOM.xlsx
+++ b/Modules/LOGx/LOGx_BOM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\LOGx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A0851E-9D33-4E8B-8DA9-89DACB15DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="37395" windowHeight="17955"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGx" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t>Qty</t>
   </si>
@@ -368,11 +374,14 @@
       <t>*</t>
     </r>
   </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -963,14 +972,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1008,7 +1020,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1080,7 +1092,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1253,11 +1265,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,6 +1639,9 @@
       <c r="E18" t="s">
         <v>38</v>
       </c>
+      <c r="F18" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1803,28 +1818,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F10" r:id="rId5"/>
-    <hyperlink ref="F11" r:id="rId6"/>
-    <hyperlink ref="F6" r:id="rId7"/>
-    <hyperlink ref="F7" r:id="rId8"/>
-    <hyperlink ref="F8" r:id="rId9"/>
-    <hyperlink ref="F9" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F22" r:id="rId17"/>
-    <hyperlink ref="F23" r:id="rId18"/>
-    <hyperlink ref="F24" r:id="rId19"/>
-    <hyperlink ref="F26" r:id="rId20"/>
-    <hyperlink ref="F27" r:id="rId21"/>
-    <hyperlink ref="F19" r:id="rId22"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F18" r:id="rId23" xr:uid="{E3E9128E-171B-4FF8-B2F8-635CA7A74ECB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modules/LOGx/LOGx_BOM.xlsx
+++ b/Modules/LOGx/LOGx_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\LOGx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A0851E-9D33-4E8B-8DA9-89DACB15DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511DE1DD-F505-4E7F-9914-3271B6E52EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
   <si>
     <t>Qty</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1272,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,6 +1681,9 @@
       </c>
       <c r="E20" t="s">
         <v>38</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,6 +1847,7 @@
     <hyperlink ref="F27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="F19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="F18" r:id="rId23" xr:uid="{E3E9128E-171B-4FF8-B2F8-635CA7A74ECB}"/>
+    <hyperlink ref="F20" r:id="rId24" xr:uid="{94C7BCC7-8F2B-4815-B1C7-0D2EB204A468}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modules/LOGx/LOGx_BOM.xlsx
+++ b/Modules/LOGx/LOGx_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\LOGx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511DE1DD-F505-4E7F-9914-3271B6E52EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14309DFE-DFE9-4A60-92C3-3676C2C6BD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
   <si>
     <t>Qty</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1275,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1614,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>71</v>

--- a/Modules/LOGx/LOGx_BOM.xlsx
+++ b/Modules/LOGx/LOGx_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\LOGx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14309DFE-DFE9-4A60-92C3-3676C2C6BD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FABCDF3-7681-4073-A28B-1B4C6291AA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,12 +121,6 @@
     <t>DO-41</t>
   </si>
   <si>
-    <t>C-5mm</t>
-  </si>
-  <si>
-    <t>E2.5-6.3</t>
-  </si>
-  <si>
     <t>Resistor THT</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
     <t>U4</t>
   </si>
   <si>
-    <t>R-W4</t>
-  </si>
-  <si>
     <t>U1, U2</t>
   </si>
   <si>
@@ -185,12 +176,6 @@
   </si>
   <si>
     <t>DIP-8 Socket</t>
-  </si>
-  <si>
-    <t>Capacitor Ceramic THT</t>
-  </si>
-  <si>
-    <t>Capacitor Polarized THT</t>
   </si>
   <si>
     <t>Parts in itallic are on the front PCB!</t>
@@ -382,6 +367,21 @@
   </si>
   <si>
     <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1317,16 +1317,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1337,16 +1337,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1357,16 +1357,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1377,16 +1377,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1397,16 +1397,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1417,16 +1417,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1440,13 +1440,13 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1460,13 +1460,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1474,19 +1474,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1494,19 +1494,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1520,13 +1520,13 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1540,13 +1540,13 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1554,19 +1554,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1580,13 +1580,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1614,19 +1614,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1634,19 +1634,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,19 +1654,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,19 +1674,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,16 +1694,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,16 +1711,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,16 +1728,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,16 +1745,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1762,16 +1762,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,42 +1787,42 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Modules/LOGx/LOGx_BOM.xlsx
+++ b/Modules/LOGx/LOGx_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\LOGx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FABCDF3-7681-4073-A28B-1B4C6291AA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61C5C43-8854-47E5-A9E6-C3402EA8A613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGx" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
   <si>
     <t>Qty</t>
   </si>
@@ -70,9 +70,6 @@
     <t>78L05</t>
   </si>
   <si>
-    <t>J_IN_A1, J_IN_A2,  J_IN_B1, J_IN_B2, J_OUT1, J_OUT2</t>
-  </si>
-  <si>
     <t>LED Orange</t>
   </si>
   <si>
@@ -82,21 +79,12 @@
     <t>OSO5PA3HE4B</t>
   </si>
   <si>
-    <t>LD_OUT1, LD_OUT2</t>
-  </si>
-  <si>
     <t>PWR</t>
   </si>
   <si>
     <t>R5, R6, R7, R8</t>
   </si>
   <si>
-    <t>R13, R14</t>
-  </si>
-  <si>
-    <t>R15, R16</t>
-  </si>
-  <si>
     <t>DIP-14</t>
   </si>
   <si>
@@ -148,15 +136,9 @@
     <t>D1</t>
   </si>
   <si>
-    <t>D2, D3, D4, D5</t>
-  </si>
-  <si>
     <t>J_A1, J_A2, J_A3</t>
   </si>
   <si>
-    <t>J_B1, J_B2, J_B3</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -178,20 +160,353 @@
     <t>DIP-8 Socket</t>
   </si>
   <si>
-    <t>Parts in itallic are on the front PCB!</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005002670881002.html</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005003256812123.html</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32544465375.html</t>
+  </si>
+  <si>
+    <t>PJ398SM</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/thonkiconn/</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Pushernut</t>
+  </si>
+  <si>
+    <t>https://pushermanproductions.com/product/black-smooth-edge-jack-nuts-pack-of-25/</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>https://pushermanproductions.com/product/pushernuts-gold-smooth-edge-jack-nuts-pack-of-25/</t>
+  </si>
+  <si>
+    <t>4081 - AND</t>
+  </si>
+  <si>
+    <t>4011 - NAND</t>
+  </si>
+  <si>
+    <t>4071 - OR</t>
+  </si>
+  <si>
+    <t>4001 - NOR</t>
+  </si>
+  <si>
+    <t>4070 - XOR</t>
+  </si>
+  <si>
+    <t>4077 - XNOR</t>
+  </si>
+  <si>
+    <t>Compatible 4000 ICs:</t>
+  </si>
+  <si>
+    <t>Male Header 2.54mm</t>
+  </si>
+  <si>
+    <t>Female Header 2.54mm</t>
+  </si>
+  <si>
+    <t>1x3</t>
+  </si>
+  <si>
+    <t>2x5</t>
+  </si>
+  <si>
+    <t>M2*5</t>
+  </si>
+  <si>
+    <t>M2 Screw</t>
+  </si>
+  <si>
+    <t>Screw</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32810872544.html</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M2 Nut</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005002177898963.html</t>
+  </si>
+  <si>
+    <t>M2, 11mm</t>
+  </si>
+  <si>
+    <t>M2 Standoff</t>
+  </si>
+  <si>
+    <t>Standoff</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005002952338852.html</t>
+  </si>
+  <si>
+    <t>* Use a different IC for different gates! See the list below.</t>
+  </si>
+  <si>
+    <t>Jack Nut</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005001557138121.html</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <r>
+      <t>CD4081</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>R1, R2, R3, R4</t>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Avalon Harmonics LOGx</t>
+  </si>
+  <si>
+    <t>Alt Link</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p046/73P0034/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p050/73P0038/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p053/73P0041/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p054/73P0042/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4148-dio/tht-universal-diodes/diotec-semiconductor/1n4148/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/lm358n_nopb/tht-operational-amplifiers/texas-instruments/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/lm324n-ti/tht-operational-amplifiers/texas-instruments/lm324n/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/l78l05abz/unregulated-voltage-regulators/stmicroelectronics/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/oso5pa3he4b/tht-leds-3mm/optosupply/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/icvt-8p/standard-dip-sockets/connfly/ds1009-08at1nx/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/icvt-14p/standard-dip-sockets/connfly/ds1009-14at1nx-0a2/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl262-3sg/pin-headers/connfly/ds1023-1-3s21/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R4</t>
     </r>
     <r>
       <rPr>
@@ -205,190 +520,300 @@
     </r>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005002670881002.html</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005003256812123.html</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4148-dio/tht-universal-diodes/diotec-semiconductor/1n4148/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/lm358n_nopb/tht-operational-amplifiers/texas-instruments/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/lm324n-ti/tht-operational-amplifiers/texas-instruments/lm324n/</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/32544465375.html</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/l78l05abz/unregulated-voltage-regulators/stmicroelectronics/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/oso5pa3he4b/tht-leds-3mm/optosupply/</t>
-  </si>
-  <si>
-    <t>PJ398SM</t>
-  </si>
-  <si>
-    <t>https://www.thonk.co.uk/shop/thonkiconn/</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Pushernut</t>
-  </si>
-  <si>
-    <t>https://pushermanproductions.com/product/black-smooth-edge-jack-nuts-pack-of-25/</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>https://pushermanproductions.com/product/pushernuts-gold-smooth-edge-jack-nuts-pack-of-25/</t>
-  </si>
-  <si>
-    <t>4081 - AND</t>
-  </si>
-  <si>
-    <t>4011 - NAND</t>
-  </si>
-  <si>
-    <t>4071 - OR</t>
-  </si>
-  <si>
-    <t>4001 - NOR</t>
-  </si>
-  <si>
-    <t>4070 - XOR</t>
-  </si>
-  <si>
-    <t>4077 - XNOR</t>
-  </si>
-  <si>
-    <t>Compatible 4000 ICs:</t>
-  </si>
-  <si>
-    <t>Male Header 2.54mm</t>
-  </si>
-  <si>
-    <t>Female Header 2.54mm</t>
-  </si>
-  <si>
-    <t>1x3</t>
-  </si>
-  <si>
-    <t>2x5</t>
-  </si>
-  <si>
-    <t>M2*5</t>
-  </si>
-  <si>
-    <t>M2 Screw</t>
-  </si>
-  <si>
-    <t>Screw</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/32810872544.html</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M2 Nut</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005002177898963.html</t>
-  </si>
-  <si>
-    <t>M2, 11mm</t>
-  </si>
-  <si>
-    <t>M2 Standoff</t>
-  </si>
-  <si>
-    <t>Standoff</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005002952338852.html</t>
-  </si>
-  <si>
-    <t>* Use a different IC for different gates! See the list below.</t>
-  </si>
-  <si>
-    <t>Jack Nut</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005001557138121.html</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <r>
-      <t>CD4081</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
-  </si>
-  <si>
-    <t>Thonkiconn</t>
-  </si>
-  <si>
-    <t>R-1/4W</t>
-  </si>
-  <si>
-    <t>C-P5mm</t>
-  </si>
-  <si>
-    <t>E-P2.5mm 6.3x11.5mm</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor THT</t>
-  </si>
-  <si>
-    <t>Electrolytic Capacitor THT</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD_OUT1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD_OUT2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN_A1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN_A2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN_B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN_B2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B3</t>
+    </r>
+  </si>
+  <si>
+    <t>Parts  with underline are on the front PCB!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,14 +968,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -574,6 +991,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -917,15 +1350,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1272,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,569 +1723,656 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="D17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+        <v>74</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>4</v>
       </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2</v>
       </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>79</v>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>73</v>
+      <c r="A34" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>78</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F18" r:id="rId23" xr:uid="{E3E9128E-171B-4FF8-B2F8-635CA7A74ECB}"/>
-    <hyperlink ref="F20" r:id="rId24" xr:uid="{94C7BCC7-8F2B-4815-B1C7-0D2EB204A468}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J20" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F19" r:id="rId23" xr:uid="{E3E9128E-171B-4FF8-B2F8-635CA7A74ECB}"/>
+    <hyperlink ref="F21" r:id="rId24" xr:uid="{94C7BCC7-8F2B-4815-B1C7-0D2EB204A468}"/>
+    <hyperlink ref="F3" r:id="rId25" xr:uid="{CA81EE03-392C-4D6D-83EA-F768127A766D}"/>
+    <hyperlink ref="F4" r:id="rId26" xr:uid="{7CCE59AB-5574-4899-AF1C-60294F37EAB3}"/>
+    <hyperlink ref="F5" r:id="rId27" xr:uid="{6FD7CC5D-6E47-4085-886C-419741D1BAC9}"/>
+    <hyperlink ref="F6" r:id="rId28" xr:uid="{A24C1976-4BF8-4BA1-A4CD-81BFC7716665}"/>
+    <hyperlink ref="F12" r:id="rId29" xr:uid="{00C710CC-AF6F-4729-AA11-4AF64F5A9AB4}"/>
+    <hyperlink ref="F11" r:id="rId30" xr:uid="{6D16DF2D-3579-406D-90CF-3EE18407FB17}"/>
+    <hyperlink ref="F20" r:id="rId31" xr:uid="{39E95F6B-57E8-4CBC-94A5-26433D6BC7FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modules/LOGx/LOGx_BOM.xlsx
+++ b/Modules/LOGx/LOGx_BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\LOGx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61C5C43-8854-47E5-A9E6-C3402EA8A613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA3190-161A-4AC2-8EC5-97123814C419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LOGx" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1352,14 +1352,13 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1762,7 +1761,7 @@
       <c r="C3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>110</v>
       </c>
       <c r="E3" t="s">
@@ -1785,7 +1784,7 @@
       <c r="C4" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>111</v>
       </c>
       <c r="E4" t="s">
@@ -1831,7 +1830,7 @@
       <c r="C6" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>112</v>
       </c>
       <c r="E6" t="s">
@@ -1923,7 +1922,7 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>113</v>
       </c>
       <c r="E10" t="s">
@@ -2084,7 +2083,7 @@
       <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>114</v>
       </c>
       <c r="E17" t="s">
@@ -2107,7 +2106,7 @@
       <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>115</v>
       </c>
       <c r="E18" t="s">
@@ -2153,7 +2152,7 @@
       <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>116</v>
       </c>
       <c r="E20" t="s">
@@ -2293,7 +2292,7 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>117</v>
       </c>
     </row>
